--- a/docs/finalized/CAS-MLETR_ASSESSMENT_TEMPLATE-FINAL_2024-10-15.xlsx
+++ b/docs/finalized/CAS-MLETR_ASSESSMENT_TEMPLATE-FINAL_2024-10-15.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MAST/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trbouma/projects/CAS-Digital-Trade-Documentation/docs/finalized/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1286" documentId="8_{B2488105-DBA2-401A-9329-0E4DB8960F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2938BABE-FE79-4BBB-BFDC-29AD2B7FD944}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84568655-AE4C-F145-90E0-0B6717D1DAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17220" firstSheet="3" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Engagement" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="317">
   <si>
     <t>ICC DCI MLETR
 Reliable Systems Assessment Framework</t>
@@ -1004,6 +1004,9 @@
   </si>
   <si>
     <t>https://unece.org/sites/default/files/2023-09/WhitePaper_Transfer-MLETR.pdf</t>
+  </si>
+  <si>
+    <t>CAS-MLETR_ASSESSMENT_TEMPLATE_2024-10-15.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1149,27 +1152,32 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF007DFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1181,6 +1189,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1563,7 +1572,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1978,6 +1987,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2000,77 +2010,74 @@
     <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2578,9 +2585,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2618,7 +2625,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2724,7 +2731,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2866,7 +2873,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2876,164 +2883,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E3ED30-222B-4872-AC83-B374A97A31FF}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="65.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="65.5" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" ht="96.95" customHeight="1">
+    <row r="1" spans="1:3" s="7" customFormat="1" ht="97" customHeight="1">
       <c r="B1" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="193"/>
+      <c r="C1" s="162"/>
     </row>
     <row r="2" spans="1:3" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3" s="163" customFormat="1" ht="93.95" customHeight="1">
-      <c r="A3" s="162"/>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-    </row>
-    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:3" s="164" customFormat="1" ht="94" customHeight="1">
+      <c r="A3" s="163"/>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="24"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
     </row>
-    <row r="5" spans="1:3" s="21" customFormat="1" ht="18">
+    <row r="5" spans="1:3" s="21" customFormat="1" ht="16">
       <c r="A5" s="34"/>
       <c r="B5" s="35"/>
       <c r="C5" s="34"/>
     </row>
-    <row r="6" spans="1:3" s="21" customFormat="1" ht="18.95">
+    <row r="6" spans="1:3" s="21" customFormat="1" ht="17">
       <c r="B6" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="27"/>
     </row>
-    <row r="7" spans="1:3" s="21" customFormat="1" ht="18.95">
+    <row r="7" spans="1:3" s="21" customFormat="1" ht="17">
       <c r="B7" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="27"/>
     </row>
-    <row r="8" spans="1:3" s="21" customFormat="1" ht="18.95">
+    <row r="8" spans="1:3" s="21" customFormat="1" ht="17">
       <c r="B8" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="27"/>
     </row>
-    <row r="9" spans="1:3" s="21" customFormat="1" ht="18.95">
+    <row r="9" spans="1:3" s="21" customFormat="1" ht="17">
       <c r="B9" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="27"/>
     </row>
-    <row r="10" spans="1:3" s="21" customFormat="1" ht="18.95">
+    <row r="10" spans="1:3" s="21" customFormat="1" ht="17">
       <c r="B10" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="45"/>
     </row>
-    <row r="11" spans="1:3" s="21" customFormat="1" ht="18.95">
+    <row r="11" spans="1:3" s="21" customFormat="1" ht="17">
       <c r="B11" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="27"/>
     </row>
-    <row r="12" spans="1:3" s="21" customFormat="1" ht="18.95">
+    <row r="12" spans="1:3" s="21" customFormat="1" ht="17">
       <c r="B12" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="27"/>
     </row>
-    <row r="13" spans="1:3" s="21" customFormat="1" ht="18">
+    <row r="13" spans="1:3" s="21" customFormat="1" ht="16">
       <c r="B13" s="44"/>
       <c r="C13" s="27"/>
     </row>
-    <row r="14" spans="1:3" s="21" customFormat="1" ht="18.95">
+    <row r="14" spans="1:3" s="21" customFormat="1" ht="17">
       <c r="B14" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="27"/>
     </row>
-    <row r="15" spans="1:3" s="21" customFormat="1" ht="18.95">
+    <row r="15" spans="1:3" s="21" customFormat="1" ht="17">
       <c r="B15" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="27"/>
     </row>
-    <row r="16" spans="1:3" s="21" customFormat="1" ht="18.95">
+    <row r="16" spans="1:3" s="21" customFormat="1" ht="17">
       <c r="B16" s="44" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="27"/>
     </row>
-    <row r="17" spans="2:4" s="21" customFormat="1" ht="18.95">
+    <row r="17" spans="2:4" s="21" customFormat="1" ht="17">
       <c r="B17" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="27"/>
     </row>
-    <row r="18" spans="2:4" s="21" customFormat="1" ht="18.95">
+    <row r="18" spans="2:4" s="21" customFormat="1" ht="17">
       <c r="B18" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="27"/>
     </row>
-    <row r="19" spans="2:4" s="21" customFormat="1" ht="18.95">
+    <row r="19" spans="2:4" s="21" customFormat="1" ht="17">
       <c r="B19" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="27"/>
     </row>
-    <row r="20" spans="2:4" s="21" customFormat="1" ht="18.95">
+    <row r="20" spans="2:4" s="21" customFormat="1" ht="17">
       <c r="B20" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="27"/>
     </row>
-    <row r="21" spans="2:4" s="21" customFormat="1" ht="18">
+    <row r="21" spans="2:4" s="21" customFormat="1" ht="16">
       <c r="B21" s="44"/>
       <c r="C21" s="27"/>
     </row>
-    <row r="22" spans="2:4" s="21" customFormat="1" ht="18.95">
+    <row r="22" spans="2:4" s="21" customFormat="1" ht="17">
       <c r="B22" s="44" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="27"/>
     </row>
-    <row r="23" spans="2:4" s="21" customFormat="1" ht="18.95">
+    <row r="23" spans="2:4" s="21" customFormat="1" ht="17">
       <c r="B23" s="44" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="27"/>
     </row>
-    <row r="24" spans="2:4" s="21" customFormat="1" ht="18.95">
+    <row r="24" spans="2:4" s="21" customFormat="1" ht="17">
       <c r="B24" s="44" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="27"/>
     </row>
-    <row r="25" spans="2:4" s="21" customFormat="1" ht="18">
+    <row r="25" spans="2:4" s="21" customFormat="1" ht="16">
       <c r="B25" s="44"/>
       <c r="C25" s="27"/>
     </row>
-    <row r="26" spans="2:4" s="21" customFormat="1" ht="18.95">
+    <row r="26" spans="2:4" s="21" customFormat="1" ht="17">
       <c r="B26" s="44" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="27"/>
     </row>
-    <row r="27" spans="2:4" s="21" customFormat="1" ht="17.25">
+    <row r="27" spans="2:4" s="21" customFormat="1" ht="17">
       <c r="B27" s="44" t="s">
         <v>19</v>
       </c>
@@ -3041,17 +3046,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:4" s="21" customFormat="1" ht="15.75">
+    <row r="28" spans="2:4" s="21" customFormat="1" ht="16">
       <c r="B28" s="44"/>
       <c r="C28" s="46"/>
     </row>
-    <row r="29" spans="2:4" s="21" customFormat="1" ht="18.95">
+    <row r="29" spans="2:4" s="21" customFormat="1" ht="17">
       <c r="B29" s="44"/>
       <c r="C29" s="47" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:4" s="21" customFormat="1" ht="38.1">
+    <row r="30" spans="2:4" s="21" customFormat="1" ht="34">
       <c r="B30" s="48" t="s">
         <v>22</v>
       </c>
@@ -3059,18 +3064,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:4" s="21" customFormat="1" ht="18">
+    <row r="31" spans="2:4" s="21" customFormat="1" ht="16">
       <c r="B31" s="20"/>
       <c r="C31" s="33"/>
     </row>
-    <row r="32" spans="2:4" s="21" customFormat="1" ht="18">
+    <row r="32" spans="2:4" s="21" customFormat="1" ht="16">
       <c r="B32" s="36"/>
       <c r="C32" s="37"/>
       <c r="D32" s="38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:4" s="21" customFormat="1" ht="18.95">
+    <row r="33" spans="2:4" s="21" customFormat="1" ht="17">
       <c r="B33" s="39" t="s">
         <v>25</v>
       </c>
@@ -3081,7 +3086,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="2:4" s="21" customFormat="1" ht="18">
+    <row r="34" spans="2:4" s="21" customFormat="1" ht="16">
       <c r="B34" s="42"/>
       <c r="C34" s="43" t="s">
         <v>28</v>
@@ -3090,62 +3095,62 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:4" s="21" customFormat="1" ht="18">
+    <row r="35" spans="2:4" s="21" customFormat="1" ht="16">
       <c r="B35" s="42"/>
       <c r="C35" s="43"/>
       <c r="D35" s="41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:4" s="21" customFormat="1" ht="18">
+    <row r="36" spans="2:4" s="21" customFormat="1" ht="16">
       <c r="B36" s="42"/>
       <c r="C36" s="43"/>
       <c r="D36" s="41"/>
     </row>
-    <row r="37" spans="2:4" s="21" customFormat="1" ht="18">
+    <row r="37" spans="2:4" s="21" customFormat="1" ht="16">
       <c r="B37" s="42"/>
       <c r="C37" s="43"/>
       <c r="D37" s="41"/>
     </row>
-    <row r="38" spans="2:4" s="21" customFormat="1" ht="18">
+    <row r="38" spans="2:4" s="21" customFormat="1" ht="16">
       <c r="B38" s="42"/>
       <c r="C38" s="43"/>
       <c r="D38" s="41"/>
     </row>
-    <row r="39" spans="2:4" s="21" customFormat="1" ht="18">
+    <row r="39" spans="2:4" s="21" customFormat="1" ht="16">
       <c r="B39" s="42"/>
       <c r="C39" s="43"/>
       <c r="D39" s="41"/>
     </row>
-    <row r="40" spans="2:4" s="21" customFormat="1" ht="18">
+    <row r="40" spans="2:4" s="21" customFormat="1" ht="16">
       <c r="B40" s="42"/>
       <c r="C40" s="43"/>
       <c r="D40" s="41"/>
     </row>
-    <row r="41" spans="2:4" s="21" customFormat="1" ht="18">
+    <row r="41" spans="2:4" s="21" customFormat="1" ht="16">
       <c r="B41" s="42"/>
       <c r="C41" s="43"/>
       <c r="D41" s="41"/>
     </row>
-    <row r="42" spans="2:4" s="21" customFormat="1" ht="18">
+    <row r="42" spans="2:4" s="21" customFormat="1" ht="16">
       <c r="B42" s="42"/>
       <c r="C42" s="43"/>
       <c r="D42" s="41"/>
     </row>
-    <row r="43" spans="2:4" s="21" customFormat="1" ht="18">
+    <row r="43" spans="2:4" s="21" customFormat="1" ht="16">
       <c r="B43" s="42"/>
       <c r="C43" s="43"/>
       <c r="D43" s="41"/>
     </row>
-    <row r="44" spans="2:4" s="21" customFormat="1" ht="18">
+    <row r="44" spans="2:4" s="21" customFormat="1" ht="16">
       <c r="B44" s="42"/>
       <c r="C44" s="43"/>
       <c r="D44" s="41"/>
     </row>
-    <row r="45" spans="2:4" s="21" customFormat="1" ht="18">
+    <row r="45" spans="2:4" s="21" customFormat="1" ht="16">
       <c r="B45" s="20"/>
     </row>
-    <row r="46" spans="2:4" s="21" customFormat="1" ht="36">
+    <row r="46" spans="2:4" s="21" customFormat="1" ht="17">
       <c r="B46" s="131" t="s">
         <v>29</v>
       </c>
@@ -3156,7 +3161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="2:4" s="21" customFormat="1" ht="18">
+    <row r="47" spans="2:4" s="21" customFormat="1" ht="16">
       <c r="B47" s="50" t="s">
         <v>31</v>
       </c>
@@ -3167,7 +3172,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="2:4" s="21" customFormat="1" ht="18">
+    <row r="48" spans="2:4" s="21" customFormat="1" ht="16">
       <c r="B48" s="50" t="s">
         <v>34</v>
       </c>
@@ -3178,48 +3183,48 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="2:4" s="21" customFormat="1" ht="18">
+    <row r="49" spans="2:4" s="21" customFormat="1" ht="16">
       <c r="B49" s="50"/>
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
     </row>
-    <row r="50" spans="2:4" s="21" customFormat="1" ht="18">
+    <row r="50" spans="2:4" s="21" customFormat="1" ht="16">
       <c r="B50" s="50"/>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
     </row>
-    <row r="51" spans="2:4" s="21" customFormat="1" ht="18">
+    <row r="51" spans="2:4" s="21" customFormat="1" ht="16">
       <c r="B51" s="50"/>
       <c r="C51" s="26"/>
       <c r="D51" s="26"/>
     </row>
-    <row r="52" spans="2:4" s="21" customFormat="1" ht="18">
+    <row r="52" spans="2:4" s="21" customFormat="1" ht="16">
       <c r="B52" s="50"/>
       <c r="C52" s="26"/>
       <c r="D52" s="26"/>
     </row>
-    <row r="53" spans="2:4" s="21" customFormat="1" ht="18">
+    <row r="53" spans="2:4" s="21" customFormat="1" ht="16">
       <c r="B53" s="50"/>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
     </row>
-    <row r="54" spans="2:4" s="21" customFormat="1" ht="18">
+    <row r="54" spans="2:4" s="21" customFormat="1" ht="16">
       <c r="B54" s="50"/>
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
     </row>
-    <row r="55" spans="2:4" s="21" customFormat="1" ht="18">
+    <row r="55" spans="2:4" s="21" customFormat="1" ht="16">
       <c r="B55" s="50"/>
       <c r="C55" s="26"/>
       <c r="D55" s="26"/>
     </row>
-    <row r="56" spans="2:4" s="21" customFormat="1" ht="18">
+    <row r="56" spans="2:4" s="21" customFormat="1" ht="16">
       <c r="B56" s="20"/>
     </row>
-    <row r="57" spans="2:4" s="21" customFormat="1" ht="18">
+    <row r="57" spans="2:4" s="21" customFormat="1" ht="16">
       <c r="B57" s="20"/>
     </row>
-    <row r="58" spans="2:4" s="21" customFormat="1" ht="18">
+    <row r="58" spans="2:4" s="21" customFormat="1" ht="16">
       <c r="B58" s="20"/>
     </row>
     <row r="59" spans="2:4" s="21" customFormat="1" ht="59.25" customHeight="1">
@@ -3228,7 +3233,7 @@
       </c>
       <c r="C59" s="160"/>
     </row>
-    <row r="60" spans="2:4" s="21" customFormat="1" ht="18">
+    <row r="60" spans="2:4" s="21" customFormat="1" ht="16">
       <c r="B60" s="20"/>
     </row>
   </sheetData>
@@ -3247,45 +3252,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.100000000000001"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="76.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="7"/>
+    <col min="1" max="1" width="9.1640625" style="8"/>
+    <col min="2" max="2" width="76.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="96.95" customHeight="1">
+    <row r="1" spans="1:4" ht="97" customHeight="1">
       <c r="A1" s="7"/>
       <c r="B1" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="193"/>
+      <c r="C1" s="162"/>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:4" s="163" customFormat="1" ht="93.95" customHeight="1">
-      <c r="A3" s="162"/>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-    </row>
-    <row r="4" spans="1:4" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:4" s="164" customFormat="1" ht="94" customHeight="1">
+      <c r="A3" s="163"/>
+    </row>
+    <row r="4" spans="1:4" customFormat="1" ht="20" customHeight="1">
       <c r="A4" s="24"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
     </row>
-    <row r="5" spans="1:4" s="11" customFormat="1" ht="17.25">
+    <row r="5" spans="1:4" s="11" customFormat="1" ht="17">
       <c r="A5" s="29" t="s">
         <v>38</v>
       </c>
@@ -3297,7 +3299,7 @@
       </c>
       <c r="D5" s="19"/>
     </row>
-    <row r="6" spans="1:4" s="157" customFormat="1" ht="36">
+    <row r="6" spans="1:4" s="157" customFormat="1" ht="17">
       <c r="A6" s="155"/>
       <c r="B6" s="32" t="s">
         <v>41</v>
@@ -3307,13 +3309,13 @@
       </c>
       <c r="D6" s="156"/>
     </row>
-    <row r="7" spans="1:4" ht="18">
+    <row r="7" spans="1:4" ht="16">
       <c r="A7" s="20"/>
       <c r="B7" s="22"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
     </row>
-    <row r="8" spans="1:4" ht="17.25">
+    <row r="8" spans="1:4" ht="17">
       <c r="A8" s="29"/>
       <c r="B8" s="142" t="s">
         <v>42</v>
@@ -3323,87 +3325,87 @@
     </row>
     <row r="9" spans="1:4" ht="58.5" customHeight="1">
       <c r="A9" s="141"/>
-      <c r="B9" s="167" t="s">
+      <c r="B9" s="168" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="167"/>
+      <c r="C9" s="168"/>
       <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4" ht="70.5" customHeight="1">
       <c r="A10" s="141"/>
-      <c r="B10" s="167" t="s">
+      <c r="B10" s="168" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="167"/>
+      <c r="C10" s="168"/>
       <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4" ht="53.25" customHeight="1">
       <c r="A11" s="139"/>
-      <c r="B11" s="167" t="s">
+      <c r="B11" s="168" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="167"/>
+      <c r="C11" s="168"/>
       <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:4" ht="102" customHeight="1">
       <c r="A12" s="139"/>
-      <c r="B12" s="167" t="s">
+      <c r="B12" s="168" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="167"/>
+      <c r="C12" s="168"/>
       <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" s="154" customFormat="1" ht="47.25" customHeight="1">
       <c r="A13" s="152"/>
-      <c r="B13" s="168" t="s">
+      <c r="B13" s="169" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="169"/>
+      <c r="C13" s="170"/>
       <c r="D13" s="153"/>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:4" ht="16">
       <c r="A14" s="20"/>
       <c r="B14" s="150"/>
       <c r="C14" s="151"/>
       <c r="D14" s="21"/>
     </row>
-    <row r="15" spans="1:4" s="11" customFormat="1" ht="143.1" customHeight="1">
+    <row r="15" spans="1:4" s="11" customFormat="1" ht="143" customHeight="1">
       <c r="A15" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="164" t="s">
+      <c r="B15" s="165" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="164"/>
+      <c r="C15" s="165"/>
       <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:4" s="11" customFormat="1" ht="72" customHeight="1">
       <c r="A16" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="166" t="s">
+      <c r="B16" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="166"/>
+      <c r="C16" s="167"/>
       <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:4" s="11" customFormat="1" ht="152.25" customHeight="1">
       <c r="A17" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="165" t="s">
+      <c r="B17" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="165"/>
+      <c r="C17" s="166"/>
       <c r="D17" s="19"/>
     </row>
-    <row r="18" spans="1:4" ht="18">
+    <row r="18" spans="1:4" ht="16">
       <c r="A18" s="20"/>
       <c r="B18" s="22"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
     </row>
-    <row r="19" spans="1:4" ht="18.95">
+    <row r="19" spans="1:4" ht="17">
       <c r="A19" s="20"/>
       <c r="B19" s="18" t="s">
         <v>54</v>
@@ -3411,7 +3413,7 @@
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
     </row>
-    <row r="20" spans="1:4" ht="18.95">
+    <row r="20" spans="1:4" ht="17">
       <c r="A20" s="20"/>
       <c r="B20" s="22" t="s">
         <v>55</v>
@@ -3419,7 +3421,7 @@
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="18.95">
+    <row r="21" spans="1:4" ht="17">
       <c r="A21" s="20"/>
       <c r="B21" s="22" t="s">
         <v>56</v>
@@ -3427,24 +3429,24 @@
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
     </row>
-    <row r="30" spans="1:4" s="11" customFormat="1">
+    <row r="30" spans="1:4" s="11" customFormat="1" ht="15">
       <c r="A30" s="14"/>
       <c r="B30" s="10"/>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="15"/>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" ht="15">
       <c r="B43" s="10"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" ht="15">
       <c r="B52" s="10"/>
     </row>
-    <row r="60" spans="1:2" s="11" customFormat="1">
+    <row r="60" spans="1:2" s="11" customFormat="1" ht="15">
       <c r="A60" s="14"/>
       <c r="B60" s="10"/>
     </row>
-    <row r="65" spans="2:3" ht="18">
+    <row r="65" spans="2:3" ht="16">
       <c r="B65" s="10" t="s">
         <v>57</v>
       </c>
@@ -3452,7 +3454,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="2:3" ht="18">
+    <row r="66" spans="2:3" ht="15">
       <c r="B66" s="12" t="s">
         <v>59</v>
       </c>
@@ -3460,7 +3462,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="2:3" ht="18">
+    <row r="67" spans="2:3" ht="15">
       <c r="B67" s="12" t="s">
         <v>60</v>
       </c>
@@ -3468,7 +3470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="2:3" ht="18">
+    <row r="68" spans="2:3" ht="15">
       <c r="B68" s="12" t="s">
         <v>61</v>
       </c>
@@ -3476,7 +3478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:3" ht="18">
+    <row r="69" spans="2:3" ht="15">
       <c r="B69" s="12" t="s">
         <v>62</v>
       </c>
@@ -3484,7 +3486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="2:3" ht="18">
+    <row r="70" spans="2:3" ht="16">
       <c r="B70" s="16" t="s">
         <v>63</v>
       </c>
@@ -3493,25 +3495,23 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="2:3" ht="18">
+    <row r="74" spans="2:3" ht="15">
       <c r="B74" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="2:3" ht="18">
+    <row r="75" spans="2:3" ht="15">
       <c r="B75" s="12" t="s">
         <v>65</v>
       </c>
       <c r="C75" s="13"/>
     </row>
-    <row r="76" spans="2:3" ht="18">
+    <row r="76" spans="2:3" ht="15">
       <c r="B76" s="12" t="s">
         <v>66</v>
       </c>
       <c r="C76" s="17"/>
     </row>
-    <row r="82" ht="14.25"/>
-    <row r="83" ht="14.25"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B15:C15"/>
@@ -3535,35 +3535,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C947AA-A61E-49C8-90E1-3B0678201BE1}">
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView topLeftCell="C28" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="81" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="81" customWidth="1"/>
     <col min="4" max="4" width="69" style="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="100" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" style="100" customWidth="1"/>
     <col min="7" max="7" width="78" style="1" customWidth="1"/>
-    <col min="8" max="8" width="74.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="74.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" ht="96.95" customHeight="1">
+    <row r="1" spans="1:8" s="7" customFormat="1" ht="97" customHeight="1">
       <c r="C1" s="95"/>
       <c r="D1" s="161" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="193"/>
+      <c r="E1" s="162"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" ht="18" customHeight="1">
+    <row r="2" spans="1:8" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="96"/>
@@ -3573,18 +3573,12 @@
       <c r="G2" s="84"/>
       <c r="H2" s="84"/>
     </row>
-    <row r="3" spans="1:9" s="163" customFormat="1" ht="93.95" customHeight="1">
-      <c r="A3" s="162"/>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
-    </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:8" s="164" customFormat="1" ht="94" customHeight="1">
+      <c r="A3" s="163"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="96"/>
@@ -3594,7 +3588,7 @@
       <c r="G4" s="84"/>
       <c r="H4" s="84"/>
     </row>
-    <row r="5" spans="1:9" s="102" customFormat="1" ht="41.25">
+    <row r="5" spans="1:8" s="102" customFormat="1" ht="36">
       <c r="A5" s="101" t="s">
         <v>68</v>
       </c>
@@ -3620,7 +3614,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="21" customFormat="1" ht="62.25" customHeight="1">
+    <row r="6" spans="1:8" s="21" customFormat="1" ht="62.25" customHeight="1">
       <c r="A6" s="51">
         <v>1</v>
       </c>
@@ -3642,7 +3636,7 @@
       </c>
       <c r="H6" s="122"/>
     </row>
-    <row r="7" spans="1:9" s="21" customFormat="1" ht="59.25" customHeight="1">
+    <row r="7" spans="1:8" s="21" customFormat="1" ht="59.25" customHeight="1">
       <c r="A7" s="51"/>
       <c r="B7" s="92"/>
       <c r="C7" s="107"/>
@@ -3654,7 +3648,7 @@
       </c>
       <c r="H7" s="122"/>
     </row>
-    <row r="8" spans="1:9" s="21" customFormat="1" ht="42" customHeight="1">
+    <row r="8" spans="1:8" s="21" customFormat="1" ht="42" customHeight="1">
       <c r="C8" s="109"/>
       <c r="D8" s="109"/>
       <c r="E8" s="109"/>
@@ -3664,7 +3658,7 @@
       </c>
       <c r="H8" s="123"/>
     </row>
-    <row r="9" spans="1:9" s="21" customFormat="1" ht="36">
+    <row r="9" spans="1:8" s="21" customFormat="1" ht="38">
       <c r="A9" s="52">
         <v>11</v>
       </c>
@@ -3686,7 +3680,7 @@
       </c>
       <c r="H9" s="122"/>
     </row>
-    <row r="10" spans="1:9" s="21" customFormat="1" ht="43.5" customHeight="1">
+    <row r="10" spans="1:8" s="21" customFormat="1" ht="43.5" customHeight="1">
       <c r="A10" s="52"/>
       <c r="B10" s="93"/>
       <c r="C10" s="112"/>
@@ -3698,7 +3692,7 @@
       </c>
       <c r="H10" s="122"/>
     </row>
-    <row r="11" spans="1:9" s="21" customFormat="1" ht="45.75" customHeight="1">
+    <row r="11" spans="1:8" s="21" customFormat="1" ht="45.75" customHeight="1">
       <c r="A11" s="52"/>
       <c r="B11" s="93"/>
       <c r="C11" s="112"/>
@@ -3710,7 +3704,7 @@
       </c>
       <c r="H11" s="122"/>
     </row>
-    <row r="12" spans="1:9" s="21" customFormat="1" ht="60.75" customHeight="1">
+    <row r="12" spans="1:8" s="21" customFormat="1" ht="60.75" customHeight="1">
       <c r="A12" s="52"/>
       <c r="B12" s="93"/>
       <c r="C12" s="112"/>
@@ -3722,7 +3716,7 @@
       </c>
       <c r="H12" s="122"/>
     </row>
-    <row r="13" spans="1:9" s="21" customFormat="1" ht="42" customHeight="1">
+    <row r="13" spans="1:8" s="21" customFormat="1" ht="42" customHeight="1">
       <c r="A13" s="52"/>
       <c r="B13" s="93"/>
       <c r="C13" s="112"/>
@@ -3734,7 +3728,7 @@
       </c>
       <c r="H13" s="122"/>
     </row>
-    <row r="14" spans="1:9" s="21" customFormat="1" ht="47.25" customHeight="1">
+    <row r="14" spans="1:8" s="21" customFormat="1" ht="47.25" customHeight="1">
       <c r="A14" s="52">
         <v>3</v>
       </c>
@@ -3756,7 +3750,7 @@
       </c>
       <c r="H14" s="122"/>
     </row>
-    <row r="15" spans="1:9" s="21" customFormat="1" ht="61.5" customHeight="1">
+    <row r="15" spans="1:8" s="21" customFormat="1" ht="61.5" customHeight="1">
       <c r="A15" s="52"/>
       <c r="B15" s="93"/>
       <c r="C15" s="112"/>
@@ -3768,7 +3762,7 @@
       </c>
       <c r="H15" s="122"/>
     </row>
-    <row r="16" spans="1:9" s="21" customFormat="1" ht="42" customHeight="1">
+    <row r="16" spans="1:8" s="21" customFormat="1" ht="42" customHeight="1">
       <c r="A16" s="52"/>
       <c r="B16" s="93"/>
       <c r="C16" s="112"/>
@@ -3802,7 +3796,7 @@
       </c>
       <c r="H17" s="122"/>
     </row>
-    <row r="18" spans="1:8" s="21" customFormat="1" ht="36">
+    <row r="18" spans="1:8" s="21" customFormat="1" ht="38">
       <c r="A18" s="52"/>
       <c r="B18" s="93"/>
       <c r="C18" s="112"/>
@@ -3814,7 +3808,7 @@
       </c>
       <c r="H18" s="122"/>
     </row>
-    <row r="19" spans="1:8" s="21" customFormat="1" ht="36">
+    <row r="19" spans="1:8" s="21" customFormat="1" ht="38">
       <c r="A19" s="52"/>
       <c r="B19" s="93"/>
       <c r="C19" s="112"/>
@@ -3826,7 +3820,7 @@
       </c>
       <c r="H19" s="122"/>
     </row>
-    <row r="20" spans="1:8" s="21" customFormat="1" ht="54">
+    <row r="20" spans="1:8" s="21" customFormat="1" ht="57">
       <c r="A20" s="52"/>
       <c r="B20" s="93"/>
       <c r="C20" s="112"/>
@@ -3838,7 +3832,7 @@
       </c>
       <c r="H20" s="122"/>
     </row>
-    <row r="21" spans="1:8" s="21" customFormat="1" ht="54">
+    <row r="21" spans="1:8" s="21" customFormat="1" ht="57">
       <c r="A21" s="52"/>
       <c r="B21" s="93"/>
       <c r="C21" s="112"/>
@@ -3850,7 +3844,7 @@
       </c>
       <c r="H21" s="122"/>
     </row>
-    <row r="22" spans="1:8" s="21" customFormat="1" ht="54">
+    <row r="22" spans="1:8" s="21" customFormat="1" ht="57">
       <c r="A22" s="52"/>
       <c r="B22" s="93"/>
       <c r="C22" s="112"/>
@@ -3862,7 +3856,7 @@
       </c>
       <c r="H22" s="122"/>
     </row>
-    <row r="23" spans="1:8" s="21" customFormat="1" ht="36">
+    <row r="23" spans="1:8" s="21" customFormat="1" ht="19">
       <c r="A23" s="52"/>
       <c r="B23" s="93"/>
       <c r="C23" s="112"/>
@@ -3874,7 +3868,7 @@
       </c>
       <c r="H23" s="122"/>
     </row>
-    <row r="24" spans="1:8" s="21" customFormat="1" ht="54">
+    <row r="24" spans="1:8" s="21" customFormat="1" ht="57">
       <c r="A24" s="52"/>
       <c r="B24" s="93"/>
       <c r="C24" s="112"/>
@@ -3920,7 +3914,7 @@
       </c>
       <c r="H26" s="122"/>
     </row>
-    <row r="27" spans="1:8" s="21" customFormat="1" ht="54">
+    <row r="27" spans="1:8" s="21" customFormat="1" ht="57">
       <c r="A27" s="52">
         <v>8</v>
       </c>
@@ -3954,7 +3948,7 @@
       </c>
       <c r="H28" s="122"/>
     </row>
-    <row r="29" spans="1:8" s="21" customFormat="1" ht="54">
+    <row r="29" spans="1:8" s="21" customFormat="1" ht="57">
       <c r="A29" s="52"/>
       <c r="B29" s="93"/>
       <c r="C29" s="112"/>
@@ -3966,7 +3960,7 @@
       </c>
       <c r="H29" s="122"/>
     </row>
-    <row r="30" spans="1:8" s="21" customFormat="1" ht="36">
+    <row r="30" spans="1:8" s="21" customFormat="1" ht="38">
       <c r="A30" s="52"/>
       <c r="B30" s="93"/>
       <c r="C30" s="112"/>
@@ -3978,7 +3972,7 @@
       </c>
       <c r="H30" s="122"/>
     </row>
-    <row r="31" spans="1:8" s="21" customFormat="1" ht="71.25">
+    <row r="31" spans="1:8" s="21" customFormat="1" ht="76">
       <c r="A31" s="52">
         <v>9</v>
       </c>
@@ -4012,7 +4006,7 @@
       </c>
       <c r="H32" s="122"/>
     </row>
-    <row r="33" spans="1:8" s="21" customFormat="1" ht="36">
+    <row r="33" spans="1:8" s="21" customFormat="1" ht="38">
       <c r="A33" s="52"/>
       <c r="B33" s="93"/>
       <c r="C33" s="112"/>
@@ -4024,7 +4018,7 @@
       </c>
       <c r="H33" s="122"/>
     </row>
-    <row r="34" spans="1:8" s="21" customFormat="1" ht="36">
+    <row r="34" spans="1:8" s="21" customFormat="1" ht="38">
       <c r="A34" s="54">
         <v>29</v>
       </c>
@@ -4046,7 +4040,7 @@
       </c>
       <c r="H34" s="124"/>
     </row>
-    <row r="35" spans="1:8" s="21" customFormat="1" ht="54">
+    <row r="35" spans="1:8" s="21" customFormat="1" ht="57">
       <c r="A35" s="54">
         <v>30</v>
       </c>
@@ -4068,7 +4062,7 @@
       </c>
       <c r="H35" s="124"/>
     </row>
-    <row r="36" spans="1:8" s="21" customFormat="1" ht="54">
+    <row r="36" spans="1:8" s="21" customFormat="1" ht="38">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="112"/>
@@ -4080,7 +4074,7 @@
       </c>
       <c r="H36" s="124"/>
     </row>
-    <row r="37" spans="1:8" s="21" customFormat="1" ht="54">
+    <row r="37" spans="1:8" s="21" customFormat="1" ht="57">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="112"/>
@@ -4092,7 +4086,7 @@
       </c>
       <c r="H37" s="124"/>
     </row>
-    <row r="38" spans="1:8" s="21" customFormat="1" ht="54">
+    <row r="38" spans="1:8" s="21" customFormat="1" ht="57">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="112"/>
@@ -4104,7 +4098,7 @@
       </c>
       <c r="H38" s="124"/>
     </row>
-    <row r="39" spans="1:8" s="21" customFormat="1" ht="36">
+    <row r="39" spans="1:8" s="21" customFormat="1" ht="38">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="112"/>
@@ -4116,7 +4110,7 @@
       </c>
       <c r="H39" s="124"/>
     </row>
-    <row r="40" spans="1:8" s="21" customFormat="1" ht="36">
+    <row r="40" spans="1:8" s="21" customFormat="1" ht="38">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="112"/>
@@ -4128,7 +4122,7 @@
       </c>
       <c r="H40" s="124"/>
     </row>
-    <row r="41" spans="1:8" s="21" customFormat="1" ht="36">
+    <row r="41" spans="1:8" s="21" customFormat="1" ht="38">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="117"/>
@@ -4140,7 +4134,7 @@
       </c>
       <c r="H41" s="124"/>
     </row>
-    <row r="42" spans="1:8" s="21" customFormat="1" ht="36">
+    <row r="42" spans="1:8" s="21" customFormat="1" ht="38">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="117"/>
@@ -4152,7 +4146,7 @@
       </c>
       <c r="H42" s="124"/>
     </row>
-    <row r="43" spans="1:8" s="21" customFormat="1" ht="71.25">
+    <row r="43" spans="1:8" s="21" customFormat="1" ht="57">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="117"/>
@@ -4164,7 +4158,7 @@
       </c>
       <c r="H43" s="124"/>
     </row>
-    <row r="44" spans="1:8" s="21" customFormat="1" ht="54">
+    <row r="44" spans="1:8" s="21" customFormat="1" ht="57">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="117"/>
@@ -4176,7 +4170,7 @@
       </c>
       <c r="H44" s="124"/>
     </row>
-    <row r="45" spans="1:8" s="21" customFormat="1" ht="36">
+    <row r="45" spans="1:8" s="21" customFormat="1" ht="38">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="117"/>
@@ -4188,7 +4182,7 @@
       </c>
       <c r="H45" s="124"/>
     </row>
-    <row r="46" spans="1:8" s="21" customFormat="1" ht="71.25">
+    <row r="46" spans="1:8" s="21" customFormat="1" ht="57">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="117"/>
@@ -4200,7 +4194,7 @@
       </c>
       <c r="H46" s="124"/>
     </row>
-    <row r="47" spans="1:8" s="21" customFormat="1" ht="54">
+    <row r="47" spans="1:8" s="21" customFormat="1" ht="57">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="117"/>
@@ -4212,7 +4206,7 @@
       </c>
       <c r="H47" s="124"/>
     </row>
-    <row r="48" spans="1:8" s="21" customFormat="1" ht="36">
+    <row r="48" spans="1:8" s="21" customFormat="1" ht="38">
       <c r="A48" s="52">
         <v>10</v>
       </c>
@@ -4234,7 +4228,7 @@
       </c>
       <c r="H48" s="122"/>
     </row>
-    <row r="49" spans="1:8" s="21" customFormat="1" ht="36">
+    <row r="49" spans="1:8" s="21" customFormat="1" ht="38">
       <c r="A49" s="52"/>
       <c r="B49" s="93"/>
       <c r="C49" s="112"/>
@@ -4246,7 +4240,7 @@
       </c>
       <c r="H49" s="122"/>
     </row>
-    <row r="50" spans="1:8" s="21" customFormat="1" ht="54">
+    <row r="50" spans="1:8" s="21" customFormat="1" ht="57">
       <c r="A50" s="52"/>
       <c r="B50" s="93"/>
       <c r="C50" s="112"/>
@@ -4258,7 +4252,7 @@
       </c>
       <c r="H50" s="122"/>
     </row>
-    <row r="51" spans="1:8" s="21" customFormat="1" ht="18">
+    <row r="51" spans="1:8" s="21" customFormat="1" ht="19">
       <c r="A51" s="52"/>
       <c r="B51" s="93"/>
       <c r="C51" s="112"/>
@@ -4270,7 +4264,7 @@
       </c>
       <c r="H51" s="122"/>
     </row>
-    <row r="52" spans="1:8" s="21" customFormat="1" ht="36">
+    <row r="52" spans="1:8" s="21" customFormat="1" ht="38">
       <c r="A52" s="54">
         <v>26</v>
       </c>
@@ -4314,7 +4308,7 @@
       </c>
       <c r="H53" s="124"/>
     </row>
-    <row r="54" spans="1:8" s="21" customFormat="1" ht="54">
+    <row r="54" spans="1:8" s="21" customFormat="1" ht="38">
       <c r="A54" s="54">
         <v>28</v>
       </c>
@@ -4348,7 +4342,7 @@
       </c>
       <c r="H55" s="124"/>
     </row>
-    <row r="56" spans="1:8" s="21" customFormat="1" ht="54">
+    <row r="56" spans="1:8" s="21" customFormat="1" ht="57">
       <c r="A56" s="23"/>
       <c r="B56" s="23"/>
       <c r="C56" s="118"/>
@@ -4426,7 +4420,7 @@
       </c>
       <c r="H59" s="124"/>
     </row>
-    <row r="60" spans="1:8" s="21" customFormat="1" ht="18">
+    <row r="60" spans="1:8" s="21" customFormat="1" ht="19">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60" s="117"/>
@@ -4438,7 +4432,7 @@
       </c>
       <c r="H60" s="124"/>
     </row>
-    <row r="61" spans="1:8" s="21" customFormat="1" ht="36">
+    <row r="61" spans="1:8" s="21" customFormat="1" ht="38">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61" s="120"/>
@@ -4450,7 +4444,7 @@
       </c>
       <c r="H61" s="124"/>
     </row>
-    <row r="62" spans="1:8" s="21" customFormat="1" ht="36">
+    <row r="62" spans="1:8" s="21" customFormat="1" ht="38">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62" s="120"/>
@@ -4462,7 +4456,7 @@
       </c>
       <c r="H62" s="124"/>
     </row>
-    <row r="63" spans="1:8" s="21" customFormat="1" ht="36">
+    <row r="63" spans="1:8" s="21" customFormat="1" ht="38">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63" s="120"/>
@@ -4474,7 +4468,7 @@
       </c>
       <c r="H63" s="124"/>
     </row>
-    <row r="64" spans="1:8" s="21" customFormat="1" ht="54">
+    <row r="64" spans="1:8" s="21" customFormat="1" ht="57">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64" s="120"/>
@@ -4486,7 +4480,7 @@
       </c>
       <c r="H64" s="124"/>
     </row>
-    <row r="65" spans="1:8" s="21" customFormat="1" ht="54">
+    <row r="65" spans="1:8" s="21" customFormat="1" ht="38">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65" s="120"/>
@@ -4498,7 +4492,7 @@
       </c>
       <c r="H65" s="124"/>
     </row>
-    <row r="66" spans="1:8" s="21" customFormat="1" ht="54">
+    <row r="66" spans="1:8" s="21" customFormat="1" ht="57">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66" s="120"/>
@@ -4510,7 +4504,7 @@
       </c>
       <c r="H66" s="124"/>
     </row>
-    <row r="67" spans="1:8" s="21" customFormat="1" ht="36">
+    <row r="67" spans="1:8" s="21" customFormat="1" ht="38">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67" s="117"/>
@@ -4522,7 +4516,7 @@
       </c>
       <c r="H67" s="124"/>
     </row>
-    <row r="68" spans="1:8" s="21" customFormat="1" ht="36">
+    <row r="68" spans="1:8" s="21" customFormat="1" ht="38">
       <c r="A68" s="52">
         <v>12</v>
       </c>
@@ -4544,7 +4538,7 @@
       </c>
       <c r="H68" s="122"/>
     </row>
-    <row r="69" spans="1:8" s="21" customFormat="1" ht="54">
+    <row r="69" spans="1:8" s="21" customFormat="1" ht="38">
       <c r="A69" s="52">
         <v>13</v>
       </c>
@@ -4566,7 +4560,7 @@
       </c>
       <c r="H69" s="122"/>
     </row>
-    <row r="70" spans="1:8" s="21" customFormat="1" ht="36">
+    <row r="70" spans="1:8" s="21" customFormat="1" ht="38">
       <c r="A70" s="52"/>
       <c r="B70" s="93"/>
       <c r="C70" s="112"/>
@@ -4578,7 +4572,7 @@
       </c>
       <c r="H70" s="122"/>
     </row>
-    <row r="71" spans="1:8" s="21" customFormat="1" ht="36">
+    <row r="71" spans="1:8" s="21" customFormat="1" ht="38">
       <c r="A71" s="52"/>
       <c r="B71" s="93"/>
       <c r="C71" s="112"/>
@@ -4590,7 +4584,7 @@
       </c>
       <c r="H71" s="122"/>
     </row>
-    <row r="72" spans="1:8" s="21" customFormat="1" ht="54">
+    <row r="72" spans="1:8" s="21" customFormat="1" ht="38">
       <c r="A72" s="52">
         <v>14</v>
       </c>
@@ -4612,7 +4606,7 @@
       </c>
       <c r="H72" s="122"/>
     </row>
-    <row r="73" spans="1:8" s="21" customFormat="1" ht="54">
+    <row r="73" spans="1:8" s="21" customFormat="1" ht="57">
       <c r="A73" s="52">
         <v>15</v>
       </c>
@@ -4634,7 +4628,7 @@
       </c>
       <c r="H73" s="122"/>
     </row>
-    <row r="74" spans="1:8" s="21" customFormat="1" ht="36">
+    <row r="74" spans="1:8" s="21" customFormat="1" ht="38">
       <c r="A74" s="90"/>
       <c r="B74" s="94"/>
       <c r="C74" s="112"/>
@@ -4658,7 +4652,7 @@
       </c>
       <c r="H75" s="122"/>
     </row>
-    <row r="76" spans="1:8" s="21" customFormat="1" ht="54">
+    <row r="76" spans="1:8" s="21" customFormat="1" ht="38">
       <c r="A76" s="90">
         <v>20</v>
       </c>
@@ -4680,7 +4674,7 @@
       </c>
       <c r="H76" s="122"/>
     </row>
-    <row r="77" spans="1:8" ht="54">
+    <row r="77" spans="1:8" ht="38">
       <c r="A77" s="90"/>
       <c r="B77" s="94"/>
       <c r="C77" s="112"/>
@@ -4692,7 +4686,7 @@
       </c>
       <c r="H77" s="122"/>
     </row>
-    <row r="78" spans="1:8" ht="36">
+    <row r="78" spans="1:8" ht="38">
       <c r="A78" s="91"/>
       <c r="B78" s="91"/>
       <c r="C78" s="118"/>
@@ -4721,38 +4715,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A7F5D6-D1E5-43E1-BE14-2840C230051B}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="140" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="140" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" customWidth="1"/>
+    <col min="9" max="9" width="24.83203125" customWidth="1"/>
     <col min="10" max="10" width="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="54" customHeight="1">
       <c r="A1" s="7"/>
-      <c r="B1" s="173" t="s">
+      <c r="B1" s="171" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
       <c r="F1" s="159"/>
       <c r="G1" s="159"/>
       <c r="H1" s="159"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="3" spans="1:10" ht="18.75">
+    <row r="3" spans="1:10" ht="20">
       <c r="B3" s="74" t="s">
         <v>183</v>
       </c>
@@ -4770,7 +4764,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="16">
       <c r="A5" s="140" t="s">
         <v>186</v>
       </c>
@@ -4782,12 +4776,12 @@
       </c>
       <c r="D5" s="63"/>
     </row>
-    <row r="7" spans="1:10" ht="37.5">
+    <row r="7" spans="1:10" ht="40">
       <c r="B7" s="60" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="16">
       <c r="A8" s="140" t="s">
         <v>190</v>
       </c>
@@ -4803,15 +4797,15 @@
       <c r="B9" s="68" t="s">
         <v>193</v>
       </c>
-      <c r="C9" s="175" t="s">
+      <c r="C9" s="173" t="s">
         <v>194</v>
       </c>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="175"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="173"/>
       <c r="J9" s="70" t="s">
         <v>195</v>
       </c>
@@ -4864,7 +4858,7 @@
       </c>
       <c r="J11" s="58"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="16">
       <c r="A12" s="81" t="s">
         <v>209</v>
       </c>
@@ -4882,7 +4876,7 @@
       <c r="I12" s="181"/>
       <c r="J12" s="58"/>
     </row>
-    <row r="13" spans="1:10" ht="30.75">
+    <row r="13" spans="1:10" ht="32">
       <c r="A13" s="81" t="s">
         <v>212</v>
       </c>
@@ -4900,7 +4894,7 @@
       <c r="I13" s="182"/>
       <c r="J13" s="58"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="16">
       <c r="A14" s="81" t="s">
         <v>215</v>
       </c>
@@ -4918,7 +4912,7 @@
       <c r="I14" s="182"/>
       <c r="J14" s="58"/>
     </row>
-    <row r="15" spans="1:10" ht="30.75">
+    <row r="15" spans="1:10" ht="32">
       <c r="A15" s="81" t="s">
         <v>218</v>
       </c>
@@ -4936,7 +4930,7 @@
       <c r="I15" s="182"/>
       <c r="J15" s="58"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="16">
       <c r="A16" s="81" t="s">
         <v>221</v>
       </c>
@@ -4954,7 +4948,7 @@
       <c r="I16" s="182"/>
       <c r="J16" s="58"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" ht="16">
       <c r="A17" s="81" t="s">
         <v>224</v>
       </c>
@@ -4972,7 +4966,7 @@
       <c r="I17" s="182"/>
       <c r="J17" s="58"/>
     </row>
-    <row r="18" spans="1:10" ht="60.75">
+    <row r="18" spans="1:10" ht="64">
       <c r="A18" s="81" t="s">
         <v>227</v>
       </c>
@@ -4990,7 +4984,7 @@
       <c r="I18" s="182"/>
       <c r="J18" s="67"/>
     </row>
-    <row r="19" spans="1:10" ht="60.75">
+    <row r="19" spans="1:10" ht="64">
       <c r="A19" s="81" t="s">
         <v>230</v>
       </c>
@@ -5008,7 +5002,7 @@
       <c r="I19" s="183"/>
       <c r="J19" s="58"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" ht="16">
       <c r="A20" s="64" t="s">
         <v>233</v>
       </c>
@@ -5047,12 +5041,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" ht="16">
       <c r="B26" s="82" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" ht="16">
       <c r="B27" s="64" t="s">
         <v>243</v>
       </c>
@@ -5064,50 +5058,50 @@
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" ht="16">
       <c r="B28" s="71" t="s">
         <v>187</v>
       </c>
       <c r="C28" s="6">
         <v>1</v>
       </c>
-      <c r="D28" s="170" t="s">
+      <c r="D28" s="175" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="170"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="170"/>
-      <c r="H28" s="170"/>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="E28" s="175"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="175"/>
+      <c r="H28" s="175"/>
+    </row>
+    <row r="29" spans="1:10" ht="16">
       <c r="B29" s="71" t="s">
         <v>187</v>
       </c>
       <c r="C29" s="6">
         <v>2</v>
       </c>
-      <c r="D29" s="170" t="s">
+      <c r="D29" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="170"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="170"/>
-      <c r="H29" s="170"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="E29" s="175"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="175"/>
+    </row>
+    <row r="30" spans="1:10" ht="16">
       <c r="B30" s="71" t="s">
         <v>187</v>
       </c>
       <c r="C30" s="6">
         <v>3</v>
       </c>
-      <c r="D30" s="170" t="s">
+      <c r="D30" s="175" t="s">
         <v>93</v>
       </c>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="170"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="175"/>
     </row>
     <row r="31" spans="1:10" ht="30.75" customHeight="1">
       <c r="B31" s="71" t="s">
@@ -5116,13 +5110,13 @@
       <c r="C31" s="6">
         <v>4</v>
       </c>
-      <c r="D31" s="171" t="s">
+      <c r="D31" s="174" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="171"/>
-      <c r="F31" s="171"/>
-      <c r="G31" s="171"/>
-      <c r="H31" s="171"/>
+      <c r="E31" s="174"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="174"/>
+      <c r="H31" s="174"/>
     </row>
     <row r="32" spans="1:10" ht="30.75" customHeight="1">
       <c r="B32" s="71" t="s">
@@ -5131,13 +5125,13 @@
       <c r="C32" s="6">
         <v>5</v>
       </c>
-      <c r="D32" s="172" t="s">
+      <c r="D32" s="187" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="172"/>
-      <c r="F32" s="172"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="172"/>
+      <c r="E32" s="187"/>
+      <c r="F32" s="187"/>
+      <c r="G32" s="187"/>
+      <c r="H32" s="187"/>
     </row>
     <row r="33" spans="2:8" ht="31.5" customHeight="1">
       <c r="B33" s="71" t="s">
@@ -5146,13 +5140,13 @@
       <c r="C33" s="6">
         <v>6</v>
       </c>
-      <c r="D33" s="172" t="s">
+      <c r="D33" s="187" t="s">
         <v>248</v>
       </c>
-      <c r="E33" s="172"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="172"/>
+      <c r="E33" s="187"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="187"/>
+      <c r="H33" s="187"/>
     </row>
     <row r="34" spans="2:8" ht="36.75" customHeight="1">
       <c r="B34" s="71" t="s">
@@ -5161,13 +5155,13 @@
       <c r="C34" s="6">
         <v>7</v>
       </c>
-      <c r="D34" s="171" t="s">
+      <c r="D34" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="E34" s="171"/>
-      <c r="F34" s="171"/>
-      <c r="G34" s="171"/>
-      <c r="H34" s="171"/>
+      <c r="E34" s="174"/>
+      <c r="F34" s="174"/>
+      <c r="G34" s="174"/>
+      <c r="H34" s="174"/>
     </row>
     <row r="35" spans="2:8" ht="36.75" customHeight="1">
       <c r="B35" s="71" t="s">
@@ -5176,13 +5170,13 @@
       <c r="C35" s="6">
         <v>8</v>
       </c>
-      <c r="D35" s="170" t="s">
+      <c r="D35" s="175" t="s">
         <v>116</v>
       </c>
-      <c r="E35" s="170"/>
-      <c r="F35" s="170"/>
-      <c r="G35" s="170"/>
-      <c r="H35" s="170"/>
+      <c r="E35" s="175"/>
+      <c r="F35" s="175"/>
+      <c r="G35" s="175"/>
+      <c r="H35" s="175"/>
     </row>
     <row r="36" spans="2:8" ht="36.75" customHeight="1">
       <c r="B36" s="71" t="s">
@@ -5191,103 +5185,103 @@
       <c r="C36" s="6">
         <v>9</v>
       </c>
-      <c r="D36" s="171" t="s">
+      <c r="D36" s="174" t="s">
         <v>119</v>
       </c>
-      <c r="E36" s="171"/>
-      <c r="F36" s="171"/>
-      <c r="G36" s="171"/>
-      <c r="H36" s="171"/>
-    </row>
-    <row r="37" spans="2:8">
+      <c r="E36" s="174"/>
+      <c r="F36" s="174"/>
+      <c r="G36" s="174"/>
+      <c r="H36" s="174"/>
+    </row>
+    <row r="37" spans="2:8" ht="16">
       <c r="B37" s="71" t="s">
         <v>251</v>
       </c>
       <c r="C37" s="6">
         <v>10</v>
       </c>
-      <c r="D37" s="170" t="s">
+      <c r="D37" s="175" t="s">
         <v>133</v>
       </c>
-      <c r="E37" s="170"/>
-      <c r="F37" s="170"/>
-      <c r="G37" s="170"/>
-      <c r="H37" s="170"/>
-    </row>
-    <row r="38" spans="2:8">
+      <c r="E37" s="175"/>
+      <c r="F37" s="175"/>
+      <c r="G37" s="175"/>
+      <c r="H37" s="175"/>
+    </row>
+    <row r="38" spans="2:8" ht="16">
       <c r="B38" s="71" t="s">
         <v>252</v>
       </c>
       <c r="C38" s="6">
         <v>11</v>
       </c>
-      <c r="D38" s="170" t="s">
+      <c r="D38" s="175" t="s">
         <v>138</v>
       </c>
-      <c r="E38" s="170"/>
-      <c r="F38" s="170"/>
-      <c r="G38" s="170"/>
-      <c r="H38" s="170"/>
-    </row>
-    <row r="39" spans="2:8">
+      <c r="E38" s="175"/>
+      <c r="F38" s="175"/>
+      <c r="G38" s="175"/>
+      <c r="H38" s="175"/>
+    </row>
+    <row r="39" spans="2:8" ht="16">
       <c r="B39" s="71" t="s">
         <v>253</v>
       </c>
       <c r="C39" s="6">
         <v>12</v>
       </c>
-      <c r="D39" s="170" t="s">
+      <c r="D39" s="175" t="s">
         <v>140</v>
       </c>
-      <c r="E39" s="170"/>
-      <c r="F39" s="170"/>
-      <c r="G39" s="170"/>
-      <c r="H39" s="170"/>
-    </row>
-    <row r="40" spans="2:8">
+      <c r="E39" s="175"/>
+      <c r="F39" s="175"/>
+      <c r="G39" s="175"/>
+      <c r="H39" s="175"/>
+    </row>
+    <row r="40" spans="2:8" ht="16">
       <c r="B40" s="71" t="s">
         <v>254</v>
       </c>
       <c r="C40" s="6">
         <v>13</v>
       </c>
-      <c r="D40" s="170" t="s">
+      <c r="D40" s="175" t="s">
         <v>142</v>
       </c>
-      <c r="E40" s="170"/>
-      <c r="F40" s="170"/>
-      <c r="G40" s="170"/>
-      <c r="H40" s="170"/>
-    </row>
-    <row r="41" spans="2:8">
+      <c r="E40" s="175"/>
+      <c r="F40" s="175"/>
+      <c r="G40" s="175"/>
+      <c r="H40" s="175"/>
+    </row>
+    <row r="41" spans="2:8" ht="16">
       <c r="B41" s="71" t="s">
         <v>255</v>
       </c>
       <c r="C41" s="6">
         <v>14</v>
       </c>
-      <c r="D41" s="170" t="s">
+      <c r="D41" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="E41" s="170"/>
-      <c r="F41" s="170"/>
-      <c r="G41" s="170"/>
-      <c r="H41" s="170"/>
-    </row>
-    <row r="42" spans="2:8">
+      <c r="E41" s="175"/>
+      <c r="F41" s="175"/>
+      <c r="G41" s="175"/>
+      <c r="H41" s="175"/>
+    </row>
+    <row r="42" spans="2:8" ht="16">
       <c r="B42" s="71" t="s">
         <v>256</v>
       </c>
       <c r="C42" s="6">
         <v>15</v>
       </c>
-      <c r="D42" s="170" t="s">
+      <c r="D42" s="175" t="s">
         <v>149</v>
       </c>
-      <c r="E42" s="170"/>
-      <c r="F42" s="170"/>
-      <c r="G42" s="170"/>
-      <c r="H42" s="170"/>
+      <c r="E42" s="175"/>
+      <c r="F42" s="175"/>
+      <c r="G42" s="175"/>
+      <c r="H42" s="175"/>
     </row>
     <row r="43" spans="2:8" ht="17.25" customHeight="1">
       <c r="B43" s="71" t="s">
@@ -5299,55 +5293,55 @@
       <c r="D43" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E43" s="174"/>
-      <c r="F43" s="174"/>
-      <c r="G43" s="174"/>
-      <c r="H43" s="174"/>
-    </row>
-    <row r="44" spans="2:8">
+      <c r="E43" s="172"/>
+      <c r="F43" s="172"/>
+      <c r="G43" s="172"/>
+      <c r="H43" s="172"/>
+    </row>
+    <row r="44" spans="2:8" ht="16">
       <c r="B44" s="71" t="s">
         <v>258</v>
       </c>
       <c r="C44" s="6">
         <v>17</v>
       </c>
-      <c r="D44" s="170" t="s">
+      <c r="D44" s="175" t="s">
         <v>161</v>
       </c>
-      <c r="E44" s="170"/>
-      <c r="F44" s="170"/>
-      <c r="G44" s="170"/>
-      <c r="H44" s="170"/>
-    </row>
-    <row r="45" spans="2:8">
+      <c r="E44" s="175"/>
+      <c r="F44" s="175"/>
+      <c r="G44" s="175"/>
+      <c r="H44" s="175"/>
+    </row>
+    <row r="45" spans="2:8" ht="16">
       <c r="B45" s="71" t="s">
         <v>259</v>
       </c>
       <c r="C45" s="6">
         <v>18</v>
       </c>
-      <c r="D45" s="170" t="s">
+      <c r="D45" s="175" t="s">
         <v>164</v>
       </c>
-      <c r="E45" s="170"/>
-      <c r="F45" s="170"/>
-      <c r="G45" s="170"/>
-      <c r="H45" s="170"/>
-    </row>
-    <row r="46" spans="2:8">
+      <c r="E45" s="175"/>
+      <c r="F45" s="175"/>
+      <c r="G45" s="175"/>
+      <c r="H45" s="175"/>
+    </row>
+    <row r="46" spans="2:8" ht="16">
       <c r="B46" s="71" t="s">
         <v>260</v>
       </c>
       <c r="C46" s="6">
         <v>19</v>
       </c>
-      <c r="D46" s="170" t="s">
+      <c r="D46" s="175" t="s">
         <v>169</v>
       </c>
-      <c r="E46" s="170"/>
-      <c r="F46" s="170"/>
-      <c r="G46" s="170"/>
-      <c r="H46" s="170"/>
+      <c r="E46" s="175"/>
+      <c r="F46" s="175"/>
+      <c r="G46" s="175"/>
+      <c r="H46" s="175"/>
     </row>
     <row r="47" spans="2:8" ht="30.75" customHeight="1">
       <c r="B47" s="71" t="s">
@@ -5356,13 +5350,13 @@
       <c r="C47" s="6">
         <v>20</v>
       </c>
-      <c r="D47" s="171" t="s">
+      <c r="D47" s="174" t="s">
         <v>172</v>
       </c>
-      <c r="E47" s="171"/>
-      <c r="F47" s="171"/>
-      <c r="G47" s="171"/>
-      <c r="H47" s="171"/>
+      <c r="E47" s="174"/>
+      <c r="F47" s="174"/>
+      <c r="G47" s="174"/>
+      <c r="H47" s="174"/>
     </row>
     <row r="48" spans="2:8" ht="35.25" customHeight="1">
       <c r="B48" s="71" t="s">
@@ -5371,13 +5365,13 @@
       <c r="C48" s="6">
         <v>21</v>
       </c>
-      <c r="D48" s="171" t="s">
+      <c r="D48" s="174" t="s">
         <v>177</v>
       </c>
-      <c r="E48" s="171"/>
-      <c r="F48" s="171"/>
-      <c r="G48" s="171"/>
-      <c r="H48" s="171"/>
+      <c r="E48" s="174"/>
+      <c r="F48" s="174"/>
+      <c r="G48" s="174"/>
+      <c r="H48" s="174"/>
     </row>
     <row r="53" spans="3:3" ht="34.5" customHeight="1"/>
     <row r="57" spans="3:3">
@@ -5385,6 +5379,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D32:H32"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="E43:H43"/>
     <mergeCell ref="C9:I9"/>
@@ -5401,16 +5405,6 @@
     <mergeCell ref="D11:D19"/>
     <mergeCell ref="I11:I19"/>
     <mergeCell ref="E11:F19"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5424,14 +5418,14 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="9.140625" style="6"/>
-    <col min="5" max="5" width="89.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="6"/>
+    <col min="5" max="5" width="89.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="2" spans="4:5" ht="18.75">
+    <row r="2" spans="4:5" ht="19">
       <c r="E2" s="75" t="s">
         <v>263</v>
       </c>
@@ -5484,7 +5478,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="4:5" ht="54">
+    <row r="10" spans="4:5" ht="57">
       <c r="D10" s="144"/>
       <c r="E10" s="146" t="s">
         <v>273</v>
@@ -5499,21 +5493,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE04D24-DDE3-43CE-8904-59BE93E94C20}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="66.28515625" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="66.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="96.95" customHeight="1">
-      <c r="B1" s="190" t="s">
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="97" customHeight="1">
+      <c r="B1" s="189" t="s">
         <v>274</v>
       </c>
-      <c r="C1" s="195"/>
+      <c r="C1" s="190"/>
     </row>
     <row r="2" spans="1:6" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="24"/>
@@ -5523,15 +5517,10 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" s="191" customFormat="1" ht="93.95" customHeight="1">
-      <c r="A3" s="162"/>
-      <c r="B3" s="196"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
-    </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:6" s="191" customFormat="1" ht="94" customHeight="1">
+      <c r="A3" s="163"/>
+    </row>
+    <row r="4" spans="1:6" s="7" customFormat="1" ht="20" customHeight="1">
       <c r="A4" s="24"/>
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
@@ -5539,7 +5528,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="18.95">
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="17">
       <c r="A5" s="147" t="s">
         <v>38</v>
       </c>
@@ -5548,7 +5537,7 @@
       </c>
       <c r="C5" s="147"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
+    <row r="6" spans="1:6" ht="17">
       <c r="A6" s="148">
         <v>1</v>
       </c>
@@ -5557,7 +5546,7 @@
       </c>
       <c r="C6" s="148"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75">
+    <row r="7" spans="1:6" ht="17">
       <c r="A7" s="148">
         <v>2</v>
       </c>
@@ -5566,7 +5555,7 @@
       </c>
       <c r="C7" s="148"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75">
+    <row r="8" spans="1:6" ht="17">
       <c r="A8" s="148">
         <v>3</v>
       </c>
@@ -5575,7 +5564,7 @@
       </c>
       <c r="C8" s="148"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75">
+    <row r="9" spans="1:6" ht="17">
       <c r="A9" s="148">
         <v>3</v>
       </c>
@@ -5584,7 +5573,7 @@
       </c>
       <c r="C9" s="148"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="17">
       <c r="A10" s="149">
         <v>4</v>
       </c>
@@ -5602,6 +5591,15 @@
       </c>
       <c r="C11" s="149"/>
     </row>
+    <row r="12" spans="1:6" ht="17">
+      <c r="A12" s="149">
+        <v>6</v>
+      </c>
+      <c r="B12" s="148" t="s">
+        <v>316</v>
+      </c>
+      <c r="C12" s="149"/>
+    </row>
     <row r="14" spans="1:6">
       <c r="B14" s="192" t="s">
         <v>282</v>
@@ -5612,234 +5610,268 @@
       <c r="A15" s="6">
         <v>1</v>
       </c>
-      <c r="B15" s="171" t="s">
+      <c r="B15" s="174" t="s">
         <v>283</v>
       </c>
-      <c r="C15" s="171"/>
+      <c r="C15" s="174"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="140"/>
-      <c r="B16" s="187" t="s">
+      <c r="B16" s="193" t="s">
         <v>284</v>
       </c>
-      <c r="C16" s="187"/>
+      <c r="C16" s="193"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="140"/>
-      <c r="B17" s="187" t="s">
+      <c r="B17" s="193" t="s">
         <v>285</v>
       </c>
-      <c r="C17" s="187"/>
+      <c r="C17" s="193"/>
     </row>
     <row r="18" spans="1:3" ht="33" customHeight="1">
       <c r="A18" s="140"/>
-      <c r="B18" s="187" t="s">
+      <c r="B18" s="193" t="s">
         <v>286</v>
       </c>
-      <c r="C18" s="187"/>
+      <c r="C18" s="193"/>
     </row>
     <row r="19" spans="1:3" ht="33" customHeight="1">
       <c r="A19" s="140"/>
-      <c r="B19" s="187" t="s">
+      <c r="B19" s="193" t="s">
         <v>287</v>
       </c>
-      <c r="C19" s="187"/>
+      <c r="C19" s="193"/>
     </row>
     <row r="20" spans="1:3" ht="43.5" customHeight="1">
       <c r="A20" s="140"/>
-      <c r="B20" s="187" t="s">
+      <c r="B20" s="193" t="s">
         <v>288</v>
       </c>
-      <c r="C20" s="187"/>
+      <c r="C20" s="193"/>
     </row>
     <row r="21" spans="1:3" ht="31.5" customHeight="1">
       <c r="A21" s="140"/>
-      <c r="B21" s="187" t="s">
+      <c r="B21" s="193" t="s">
         <v>289</v>
       </c>
-      <c r="C21" s="187"/>
+      <c r="C21" s="193"/>
     </row>
     <row r="22" spans="1:3" ht="32.25" customHeight="1">
       <c r="A22" s="140"/>
-      <c r="B22" s="187" t="s">
+      <c r="B22" s="193" t="s">
         <v>290</v>
       </c>
-      <c r="C22" s="187"/>
+      <c r="C22" s="193"/>
     </row>
     <row r="23" spans="1:3" ht="37.5" customHeight="1">
       <c r="A23" s="140"/>
-      <c r="B23" s="187" t="s">
+      <c r="B23" s="193" t="s">
         <v>291</v>
       </c>
-      <c r="C23" s="187"/>
+      <c r="C23" s="193"/>
     </row>
     <row r="24" spans="1:3" ht="34.5" customHeight="1">
       <c r="A24" s="140"/>
-      <c r="B24" s="187" t="s">
+      <c r="B24" s="193" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="187"/>
+      <c r="C24" s="193"/>
     </row>
     <row r="25" spans="1:3" ht="33" customHeight="1">
       <c r="A25" s="140"/>
-      <c r="B25" s="187" t="s">
+      <c r="B25" s="193" t="s">
         <v>293</v>
       </c>
-      <c r="C25" s="187"/>
+      <c r="C25" s="193"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="140"/>
-      <c r="B26" s="187" t="s">
+      <c r="B26" s="193" t="s">
         <v>294</v>
       </c>
-      <c r="C26" s="187"/>
+      <c r="C26" s="193"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="140"/>
-      <c r="B27" s="187" t="s">
+      <c r="B27" s="193" t="s">
         <v>295</v>
       </c>
-      <c r="C27" s="187"/>
+      <c r="C27" s="193"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="140" t="s">
         <v>296</v>
       </c>
-      <c r="B28" s="171" t="s">
+      <c r="B28" s="174" t="s">
         <v>297</v>
       </c>
-      <c r="C28" s="171"/>
+      <c r="C28" s="174"/>
     </row>
     <row r="29" spans="1:3" ht="30" customHeight="1">
       <c r="A29" s="140"/>
-      <c r="B29" s="188" t="s">
+      <c r="B29" s="194" t="s">
         <v>298</v>
       </c>
-      <c r="C29" s="188"/>
+      <c r="C29" s="194"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="140"/>
-      <c r="B30" s="189" t="s">
+      <c r="B30" s="188" t="s">
         <v>299</v>
       </c>
-      <c r="C30" s="189"/>
+      <c r="C30" s="188"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="140" t="s">
         <v>300</v>
       </c>
-      <c r="B31" s="194" t="s">
+      <c r="B31" s="164" t="s">
         <v>301</v>
       </c>
-      <c r="C31" s="194"/>
+      <c r="C31" s="164"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="140"/>
-      <c r="B32" s="189" t="s">
+      <c r="B32" s="188" t="s">
         <v>302</v>
       </c>
-      <c r="C32" s="189"/>
+      <c r="C32" s="188"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="140" t="s">
         <v>303</v>
       </c>
-      <c r="B33" s="194" t="s">
+      <c r="B33" s="164" t="s">
         <v>304</v>
       </c>
-      <c r="C33" s="194"/>
+      <c r="C33" s="164"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="140" t="s">
         <v>305</v>
       </c>
-      <c r="B34" s="194" t="s">
+      <c r="B34" s="164" t="s">
         <v>306</v>
       </c>
-      <c r="C34" s="194"/>
+      <c r="C34" s="164"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="B35" s="194"/>
-      <c r="C35" s="194"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="164"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="B36" s="194"/>
-      <c r="C36" s="194"/>
+      <c r="B36" s="164"/>
+      <c r="C36" s="164"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="B37" s="194"/>
-      <c r="C37" s="194"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="164"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="B38" s="194"/>
-      <c r="C38" s="194"/>
+      <c r="B38" s="164"/>
+      <c r="C38" s="164"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="B39" s="194"/>
-      <c r="C39" s="194"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="164"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="B40" s="194"/>
-      <c r="C40" s="194"/>
+      <c r="B40" s="164"/>
+      <c r="C40" s="164"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="B41" s="194"/>
-      <c r="C41" s="194"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="164"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="B42" s="194"/>
-      <c r="C42" s="194"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="164"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="B43" s="194"/>
-      <c r="C43" s="194"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="164"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="B44" s="194"/>
-      <c r="C44" s="194"/>
+      <c r="B44" s="164"/>
+      <c r="C44" s="164"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="B45" s="194"/>
-      <c r="C45" s="194"/>
+      <c r="B45" s="164"/>
+      <c r="C45" s="164"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="B46" s="194"/>
-      <c r="C46" s="194"/>
+      <c r="B46" s="164"/>
+      <c r="C46" s="164"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="B47" s="194"/>
-      <c r="C47" s="194"/>
+      <c r="B47" s="164"/>
+      <c r="C47" s="164"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="B48" s="194"/>
-      <c r="C48" s="194"/>
+      <c r="B48" s="164"/>
+      <c r="C48" s="164"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="194"/>
-      <c r="C49" s="194"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="164"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="194"/>
-      <c r="C50" s="194"/>
+      <c r="B50" s="164"/>
+      <c r="C50" s="164"/>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="194"/>
-      <c r="C51" s="194"/>
+      <c r="B51" s="164"/>
+      <c r="C51" s="164"/>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="194"/>
-      <c r="C52" s="194"/>
+      <c r="B52" s="164"/>
+      <c r="C52" s="164"/>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="194"/>
-      <c r="C53" s="194"/>
+      <c r="B53" s="164"/>
+      <c r="C53" s="164"/>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="194"/>
-      <c r="C54" s="194"/>
+      <c r="B54" s="164"/>
+      <c r="C54" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
@@ -5849,40 +5881,6 @@
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -5897,21 +5895,21 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="104.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="104.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="96.95" customHeight="1">
-      <c r="B1" s="190" t="s">
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="97" customHeight="1">
+      <c r="B1" s="189" t="s">
         <v>307</v>
       </c>
-      <c r="C1" s="195"/>
+      <c r="C1" s="190"/>
     </row>
     <row r="2" spans="1:6" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="24"/>
@@ -5921,15 +5919,10 @@
       <c r="E2" s="53"/>
       <c r="F2" s="53"/>
     </row>
-    <row r="3" spans="1:6" s="191" customFormat="1" ht="93.95" customHeight="1">
-      <c r="A3" s="162"/>
-      <c r="B3" s="196"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
-    </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:6" s="191" customFormat="1" ht="94" customHeight="1">
+      <c r="A3" s="163"/>
+    </row>
+    <row r="4" spans="1:6" s="7" customFormat="1" ht="20" customHeight="1">
       <c r="A4" s="24"/>
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
@@ -5937,7 +5930,7 @@
       <c r="E4" s="53"/>
       <c r="F4" s="53"/>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="18.95">
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="17">
       <c r="A5" s="57" t="s">
         <v>308</v>
       </c>
@@ -5948,7 +5941,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="17">
       <c r="A6" s="129" t="s">
         <v>34</v>
       </c>
@@ -5959,7 +5952,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="17">
       <c r="A7" s="129" t="s">
         <v>31</v>
       </c>
@@ -5970,7 +5963,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30.75">
+    <row r="8" spans="1:6" ht="34">
       <c r="A8" s="129" t="s">
         <v>313</v>
       </c>
@@ -5981,7 +5974,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75">
+    <row r="12" spans="1:6" ht="16">
       <c r="B12" s="59"/>
     </row>
   </sheetData>
@@ -6003,15 +5996,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="59687b16-439d-445b-a0a1-9f8838c52bbc">
@@ -6020,6 +6004,15 @@
     <TaxCatchAll xmlns="598f140b-4145-4024-8bcc-6d7083f15a24" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6283,13 +6276,40 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82388D55-7EDF-42C7-AFD8-BAD017707809}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF638887-AB71-42BC-8C12-1CC4B6F5D844}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="59687b16-439d-445b-a0a1-9f8838c52bbc"/>
+    <ds:schemaRef ds:uri="598f140b-4145-4024-8bcc-6d7083f15a24"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF638887-AB71-42BC-8C12-1CC4B6F5D844}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82388D55-7EDF-42C7-AFD8-BAD017707809}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B5999D5-5E26-4D70-AFBA-126A83FB1A81}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B5999D5-5E26-4D70-AFBA-126A83FB1A81}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="59687b16-439d-445b-a0a1-9f8838c52bbc"/>
+    <ds:schemaRef ds:uri="201d7919-24dc-4333-848d-71272f92bf5a"/>
+    <ds:schemaRef ds:uri="598f140b-4145-4024-8bcc-6d7083f15a24"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>